--- a/Personal/xueyu/physical status/跑步记录.xlsx
+++ b/Personal/xueyu/physical status/跑步记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC84AA97-EAF2-41AE-A4A0-EF34C41131B3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE710FAA-B86A-4AA4-B5B1-71D33988F622}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -353,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
@@ -383,6 +383,17 @@
         <v>3.5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>43208</v>
+      </c>
+      <c r="B3">
+        <v>1.5</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/physical status/跑步记录.xlsx
+++ b/Personal/xueyu/physical status/跑步记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE710FAA-B86A-4AA4-B5B1-71D33988F622}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB3A0FC-3DF0-4DA1-9825-781DB2512550}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -353,10 +353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -394,6 +394,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43209</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
